--- a/ZdflCount/ZdflCount/Downloads/员工信息.xlsx
+++ b/ZdflCount/ZdflCount/Downloads/员工信息.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="员工信息" sheetId="1" r:id="rId1"/>
+    <sheet name="填表注意事项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +70,22 @@
   </si>
   <si>
     <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，条目为空时，直接空着就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，手机填写一定要填写正确的手机号码，若没有手机则留空即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，红色为必填项目（姓名，工号，手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，日期格式为（年/月/日，年4个数字，月日各两个数字），比如：2017/10/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +106,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,23 +510,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
@@ -512,7 +537,7 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
@@ -549,25 +574,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZdflCount/ZdflCount/Downloads/员工信息.xlsx
+++ b/ZdflCount/ZdflCount/Downloads/员工信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="员工信息" sheetId="1" r:id="rId1"/>
     <sheet name="填表注意事项" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -18,93 +18,69 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>部门编号</t>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>座机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在住址</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
   </si>
   <si>
     <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入职日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人</t>
   </si>
   <si>
     <t>备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1，条目为空时，直接空着就好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2，手机填写一定要填写正确的手机号码，若没有手机则留空即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，日期格式为（年/月/日，年4个数字，月日各两个数字），比如：2017/10/10</t>
   </si>
   <si>
     <t>4，红色为必填项目（姓名，工号，手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，日期格式为（年/月/日，年4个数字，月日各两个数字），比如：2017/10/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,7 +88,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,83 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -229,7 +152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -507,103 +430,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>